--- a/DM/databank/banking/deal_management/BANK_82_6_Test_43805_V1.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_6_Test_43805_V1.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="636">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1914,6 +1914,114 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2720117861","modelId":"3534154489","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7650015078","actionFlag":"OVRD","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4248601953","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014168","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0968600240","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"0960014168","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014169","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0968600240","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014170","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0968600242","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0968600243","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0968600244","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0960014170","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014171","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600242","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600243","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600244","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014172","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0968600248","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0968600249","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0968600250","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"0960014172","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014173","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600248","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600249","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600250","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300044","valueAmt":"3","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"Y","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"5410009212","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014174","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300044","priceCompDesc":"FLAT","valueAmt":"3","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0968600254","valueAmt":"2","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"N","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"0960014174","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014175","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0968600254","priceCompDesc":"FLAT","valueAmt":"2","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1868600237","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1868600238","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1868600239","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1860014167","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014176","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1868600237","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1868600238","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1868600239","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0968600256","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0968600257","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0968600258","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0960014176","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014177","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600256","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"16","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600257","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"16","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600258","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"16","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1868600234","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1868600235","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1868600236","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1860014166","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014178","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1868600234","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1868600235","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1868600236","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0968600262","valueAmt":"16","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0968600263","valueAmt":"16","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0968600264","valueAmt":"16","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0960014178","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014179","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600262","priceCompDesc":"Threshold price per transaction1","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600263","priceCompDesc":"Threshold price per transaction 2","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0968600264","priceCompDesc":"Threshold price per transaction 3","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300002","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"Y","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"5410009201","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014180","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300002","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0968600268","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"N","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"0960014180","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014181","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0968600268","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014182","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0968600270","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"0960014182","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014183","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0968600270","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"1868600232","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"1860014164","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2020-01-01","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014184","actionFlag":"RECM","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2020-01-01","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"1868600232","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1795222007","dealId":"9980066035","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"1868600232","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"1860014164","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014185","actionFlag":"OVRD","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"1868600232","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -9460,10 +9568,10 @@
       </c>
       <c r="Z144" s="80"/>
       <c r="AU144" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="AV144" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:48" x14ac:dyDescent="0.35">
@@ -9540,10 +9648,10 @@
       </c>
       <c r="Z145" s="85"/>
       <c r="AU145" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="AV145" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:48" x14ac:dyDescent="0.35">
@@ -9804,10 +9912,10 @@
       <c r="Y150" s="80"/>
       <c r="Z150" s="80"/>
       <c r="AU150" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="AV150" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -9878,10 +9986,10 @@
       <c r="Y151" s="85"/>
       <c r="Z151" s="85"/>
       <c r="AU151" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="AV151" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
     </row>
     <row r="152" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10136,10 +10244,10 @@
       <c r="Y156" s="80"/>
       <c r="Z156" s="80"/>
       <c r="AU156" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="AV156" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
     </row>
     <row r="157" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10210,10 +10318,10 @@
       <c r="Y157" s="85"/>
       <c r="Z157" s="85"/>
       <c r="AU157" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="AV157" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
     </row>
     <row r="158" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10474,10 +10582,10 @@
       </c>
       <c r="Z162" s="80"/>
       <c r="AU162" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="AV162" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -10554,10 +10662,10 @@
       </c>
       <c r="Z163" s="85"/>
       <c r="AU163" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="AV163" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
     </row>
     <row r="164" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -10810,10 +10918,10 @@
       </c>
       <c r="Z168" s="89"/>
       <c r="AU168" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="AV168" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
     </row>
     <row r="169" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -10876,10 +10984,10 @@
       </c>
       <c r="Z169" s="85"/>
       <c r="AU169" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="AV169" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
     </row>
     <row r="171" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -10942,10 +11050,10 @@
       </c>
       <c r="Z171" s="89"/>
       <c r="AU171" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="AV171" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
     </row>
     <row r="172" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11008,10 +11116,10 @@
       </c>
       <c r="Z172" s="85"/>
       <c r="AU172" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="AV172" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
     </row>
     <row r="174" spans="1:48" x14ac:dyDescent="0.35">
@@ -11191,10 +11299,10 @@
       </c>
       <c r="Z176" s="80"/>
       <c r="AU176" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="AV176" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11264,10 +11372,10 @@
       </c>
       <c r="Z177" s="85"/>
       <c r="AU177" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="AV177" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
     </row>
     <row r="179" spans="1:48" x14ac:dyDescent="0.35">
@@ -11439,10 +11547,10 @@
       </c>
       <c r="Z181" s="80"/>
       <c r="AU181" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="AV181" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="182" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11504,10 +11612,10 @@
       </c>
       <c r="Z182" s="85"/>
       <c r="AU182" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="AV182" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
     </row>
     <row r="184" spans="1:48" x14ac:dyDescent="0.35">
@@ -12743,10 +12851,10 @@
       </c>
       <c r="Z218" s="80"/>
       <c r="AU218" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="AV218" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
     </row>
     <row r="219" spans="1:78" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -12808,10 +12916,10 @@
       </c>
       <c r="Z219" s="80"/>
       <c r="AU219" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="AV219" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
     <row r="221" spans="1:78" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/BANK_82_6_Test_43805_V1.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_6_Test_43805_V1.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="708">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -2022,6 +2022,222 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9980066035","modelId":"1795222007","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0960014185","actionFlag":"OVRD","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"1868600232","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014359","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0428600668","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"0420014359","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014360","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0428600668","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014361","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0428600670","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0428600671","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0428600672","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0420014361","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014362","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600670","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600671","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600672","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014363","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0428600676","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0428600677","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0428600678","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"0420014363","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014364","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600676","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600677","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600678","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300044","valueAmt":"3","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"Y","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"5410009212","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014365","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300044","priceCompDesc":"FLAT","valueAmt":"3","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0428600682","valueAmt":"2","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"N","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"0420014365","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014366","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0428600682","priceCompDesc":"FLAT","valueAmt":"2","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7048600665","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7048600666","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7048600667","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7040014358","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014367","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7048600665","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7048600666","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7048600667","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0428600684","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0428600685","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0428600686","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0420014367","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014368","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600684","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"16","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600685","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"16","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600686","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"16","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7048600662","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7048600663","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7048600664","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7040014357","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014369","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7048600662","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7048600663","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7048600664","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0428600690","valueAmt":"16","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0428600691","valueAmt":"16","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0428600692","valueAmt":"16","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0420014369","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014370","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600690","priceCompDesc":"Threshold price per transaction1","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600691","priceCompDesc":"Threshold price per transaction 2","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0428600692","priceCompDesc":"Threshold price per transaction 3","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300002","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"Y","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"5410009201","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014371","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300002","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0428600696","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"N","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"0420014371","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014372","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0428600696","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014373","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0428600698","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"0420014373","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014374","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0428600698","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"7048600660","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"7040014355","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2020-01-01","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014375","actionFlag":"RECM","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2020-01-01","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"7048600660","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4509723835","dealId":"6617436534","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"7048600660","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"7040014355","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6617436534","modelId":"4509723835","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0420014376","actionFlag":"OVRD","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"7048600660","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014651","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"8298601199","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"8290014651","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014652","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"8298601199","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014653","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8298601201","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8298601202","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8298601203","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"8290014653","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014654","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601201","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601202","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601203","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014655","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8298601207","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8298601208","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8298601209","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"8290014655","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014656","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601207","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601208","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601209","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300044","valueAmt":"3","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"Y","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"5410009212","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014657","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300044","priceCompDesc":"FLAT","valueAmt":"3","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"8298601213","valueAmt":"2","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"N","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"8290014657","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014658","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"8298601213","priceCompDesc":"FLAT","valueAmt":"2","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7958601196","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7958601197","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7958601198","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7950014650","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014659","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7958601196","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7958601197","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7958601198","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8298601215","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8298601216","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8298601217","valueAmt":"16","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"8290014659","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014660","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601215","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"16","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601216","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"16","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601217","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"16","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7958601193","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7958601194","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7958601195","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7950014649","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014661","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7958601193","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7958601194","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7958601195","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8298601221","valueAmt":"16","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8298601222","valueAmt":"16","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8298601223","valueAmt":"16","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"8290014661","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014662","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601221","priceCompDesc":"Threshold price per transaction1","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601222","priceCompDesc":"Threshold price per transaction 2","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8298601223","priceCompDesc":"Threshold price per transaction 3","valueAmt":"16","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300002","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"Y","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"5410009201","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014663","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300002","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"8298601227","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"N","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"8290014663","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014664","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"8298601227","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014665","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"8298601229","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"8290014665","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014666","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"8298601229","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"7958601191","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"7950014647","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2020-01-01","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014667","actionFlag":"RECM","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2020-01-01","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"7958601191","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1184716317","dealId":"0797147007","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"7958601191","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"7950014647","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Parent Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0797147007","modelId":"1184716317","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8290014668","actionFlag":"OVRD","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Parent Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"7958601191","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -9568,10 +9784,10 @@
       </c>
       <c r="Z144" s="80"/>
       <c r="AU144" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="AV144" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:48" x14ac:dyDescent="0.35">
@@ -9648,10 +9864,10 @@
       </c>
       <c r="Z145" s="85"/>
       <c r="AU145" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="AV145" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
     </row>
     <row r="146" spans="1:48" x14ac:dyDescent="0.35">
@@ -9912,10 +10128,10 @@
       <c r="Y150" s="80"/>
       <c r="Z150" s="80"/>
       <c r="AU150" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="AV150" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
     </row>
     <row r="151" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -9986,10 +10202,10 @@
       <c r="Y151" s="85"/>
       <c r="Z151" s="85"/>
       <c r="AU151" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="AV151" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
     </row>
     <row r="152" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10244,10 +10460,10 @@
       <c r="Y156" s="80"/>
       <c r="Z156" s="80"/>
       <c r="AU156" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="AV156" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10318,10 +10534,10 @@
       <c r="Y157" s="85"/>
       <c r="Z157" s="85"/>
       <c r="AU157" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="AV157" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10582,10 +10798,10 @@
       </c>
       <c r="Z162" s="80"/>
       <c r="AU162" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="AV162" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
     </row>
     <row r="163" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -10662,10 +10878,10 @@
       </c>
       <c r="Z163" s="85"/>
       <c r="AU163" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="AV163" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
     </row>
     <row r="164" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -10918,10 +11134,10 @@
       </c>
       <c r="Z168" s="89"/>
       <c r="AU168" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="AV168" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
     </row>
     <row r="169" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -10984,10 +11200,10 @@
       </c>
       <c r="Z169" s="85"/>
       <c r="AU169" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="AV169" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11050,10 +11266,10 @@
       </c>
       <c r="Z171" s="89"/>
       <c r="AU171" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="AV171" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11116,10 +11332,10 @@
       </c>
       <c r="Z172" s="85"/>
       <c r="AU172" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="AV172" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:48" x14ac:dyDescent="0.35">
@@ -11299,10 +11515,10 @@
       </c>
       <c r="Z176" s="80"/>
       <c r="AU176" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="AV176" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
     </row>
     <row r="177" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11372,10 +11588,10 @@
       </c>
       <c r="Z177" s="85"/>
       <c r="AU177" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="AV177" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
     </row>
     <row r="179" spans="1:48" x14ac:dyDescent="0.35">
@@ -11547,10 +11763,10 @@
       </c>
       <c r="Z181" s="80"/>
       <c r="AU181" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="AV181" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
     </row>
     <row r="182" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11612,10 +11828,10 @@
       </c>
       <c r="Z182" s="85"/>
       <c r="AU182" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="AV182" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
     </row>
     <row r="184" spans="1:48" x14ac:dyDescent="0.35">
@@ -12851,10 +13067,10 @@
       </c>
       <c r="Z218" s="80"/>
       <c r="AU218" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="AV218" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
     </row>
     <row r="219" spans="1:78" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -12916,10 +13132,10 @@
       </c>
       <c r="Z219" s="80"/>
       <c r="AU219" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="AV219" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
     </row>
     <row r="221" spans="1:78" x14ac:dyDescent="0.35">
